--- a/web/test/blogV1/testdata/blog_test.xlsx
+++ b/web/test/blogV1/testdata/blog_test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="46">
   <si>
     <t>caseName</t>
   </si>
@@ -58,7 +58,7 @@
     <t>eq</t>
   </si>
   <si>
-    <t>{"code":51,"message":"标题不能为空","data":null}</t>
+    <t>{"code":51,"message":"标题不能为空","data":{}}</t>
   </si>
   <si>
     <t>所有参数为空</t>
@@ -67,7 +67,7 @@
     <t>case2</t>
   </si>
   <si>
-    <t>{"code":51,"message":"内容不能为空","data":null}</t>
+    <t>{"code":51,"message":"内容不能为空","data":{}}</t>
   </si>
   <si>
     <t>test</t>
@@ -79,36 +79,39 @@
     <t>case3</t>
   </si>
   <si>
+    <t>{"code":0,"message":"success","data":{}}</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>{"code":51,"message":"ID不能为空","data":{}}</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>{"code":51,"message":"博客ID不能为空","data":{}}</t>
+  </si>
+  <si>
+    <t>{"code":0,"message":"success","data":{"id":1,"title":"test","content":"test1","nickname":"test1"}}</t>
+  </si>
+  <si>
+    <t>{"code":300,"message":"博客不存在","data":{}}</t>
+  </si>
+  <si>
+    <t>不存在id</t>
+  </si>
+  <si>
+    <t>{"code":0,"message":"success","data":{"list":[{"id":4,"title":"test","content":"test","nickname":"test1"}]}}</t>
+  </si>
+  <si>
     <t>{"code":0,"message":"","data":{}}</t>
   </si>
   <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>{"code":51,"message":"ID不能为空","data":null}</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>{"code":51,"message":"博客ID不能为空","data":null}</t>
-  </si>
-  <si>
-    <t>{"code":0,"message":"","data":{"id":1,"title":"test","content":"test1","nickname":"test1"}}</t>
-  </si>
-  <si>
-    <t>{"code":-1,"message":"博客不存在","data":{}}</t>
-  </si>
-  <si>
-    <t>不存在id</t>
-  </si>
-  <si>
-    <t>{"code":0,"message":"","data":{"list":[{"id":1,"title":"test","content":"test1","nickname":"test1"}]}}</t>
-  </si>
-  <si>
     <t>{"code":2,"message":"博客不存在","data":{}}</t>
   </si>
   <si>
@@ -118,7 +121,7 @@
     <t>ids</t>
   </si>
   <si>
-    <t>{"code":0,"message":"","data":{"batNo":"bat1"}}</t>
+    <t>{"code":0,"message":"success","data":{"batNo":"bat1"}}</t>
   </si>
   <si>
     <t>2,3</t>
@@ -130,7 +133,7 @@
     <t>batNo</t>
   </si>
   <si>
-    <t>{"code":0,"message":"","data":{"status":"success"}}</t>
+    <t>{"code":0,"message":"success","data":{"status":"success"}}</t>
   </si>
   <si>
     <t>bat1</t>
@@ -139,7 +142,7 @@
     <t>成功的</t>
   </si>
   <si>
-    <t>{"code":0,"message":"","data":{"status":"pending"}}</t>
+    <t>{"code":0,"message":"success","data":{"status":"pending"}}</t>
   </si>
   <si>
     <t>bat2</t>
@@ -162,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -177,32 +180,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,9 +231,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,54 +293,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -298,7 +309,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -311,14 +322,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -329,175 +332,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,35 +535,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +561,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,16 +601,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,148 +628,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,7 +1325,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1441,7 +1444,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3"/>
@@ -1570,7 +1573,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1683,7 +1686,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -1747,7 +1750,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1797,7 +1800,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1820,13 +1823,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +1844,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1871,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1891,10 +1894,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1914,13 +1917,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1935,7 +1938,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1966,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1986,13 +1989,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2009,13 +2012,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2032,13 +2035,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/web/test/blogV1/testdata/blog_test.xlsx
+++ b/web/test/blogV1/testdata/blog_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13520"/>
+    <workbookView windowHeight="16520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="blogCreate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
   <si>
     <t>caseName</t>
   </si>
@@ -112,9 +112,6 @@
     <t>{"code":0,"message":"","data":{}}</t>
   </si>
   <si>
-    <t>{"code":2,"message":"博客不存在","data":{}}</t>
-  </si>
-  <si>
     <t>不存在的ID</t>
   </si>
   <si>
@@ -151,7 +148,7 @@
     <t>处理中的</t>
   </si>
   <si>
-    <t>{"code":2,"message":"batNo不存在","data":{"status":""}}</t>
+    <t>{"code":300,"message":"batNo不存在","data":{"status":""}}</t>
   </si>
   <si>
     <t>invalid</t>
@@ -165,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -180,14 +177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,38 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,22 +218,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,6 +237,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -286,8 +269,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,17 +307,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,13 +329,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,19 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,13 +455,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,127 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,6 +528,35 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,26 +591,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -614,162 +620,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1324,8 +1321,8 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1573,7 +1570,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1750,7 +1747,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1823,13 +1820,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1874,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1894,10 +1891,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1917,13 +1914,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1937,8 +1934,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1969,7 +1966,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1989,13 +1986,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2012,13 +2009,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" t="s">
         <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2035,13 +2032,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" t="s">
         <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/web/test/blogV1/testdata/blog_test.xlsx
+++ b/web/test/blogV1/testdata/blog_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16520" activeTab="6"/>
+    <workbookView windowHeight="16520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="blogCreate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
   <si>
     <t>caseName</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>{"code":0,"message":"success","data":{"list":[{"id":4,"title":"test","content":"test","nickname":"test1"}]}}</t>
-  </si>
-  <si>
-    <t>{"code":0,"message":"","data":{}}</t>
   </si>
   <si>
     <t>不存在的ID</t>
@@ -164,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -184,7 +181,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,10 +225,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,11 +241,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,10 +264,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,16 +287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,36 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -329,73 +326,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,109 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,17 +531,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -557,6 +543,47 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,180 +617,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1746,8 +1743,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1797,7 +1794,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1826,7 +1823,7 @@
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1871,7 +1868,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1891,10 +1888,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>20</v>
@@ -1914,13 +1911,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1931,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1966,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
@@ -1986,13 +1983,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2009,13 +2006,13 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" t="s">
         <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2032,13 +2029,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/web/test/blogV1/testdata/blog_test.xlsx
+++ b/web/test/blogV1/testdata/blog_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16520" activeTab="4"/>
+    <workbookView windowWidth="28800" windowHeight="13520" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="blogCreate" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="64">
   <si>
     <t>caseName</t>
   </si>
@@ -43,6 +43,15 @@
     <t>content</t>
   </si>
   <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>用例说明</t>
   </si>
   <si>
@@ -58,25 +67,37 @@
     <t>eq</t>
   </si>
   <si>
+    <t>{"code":61,"message":"登陆失败","data":{}}</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>不登录</t>
+  </si>
+  <si>
+    <t>case2</t>
+  </si>
+  <si>
     <t>{"code":51,"message":"标题不能为空","data":{}}</t>
   </si>
   <si>
+    <t>test1</t>
+  </si>
+  <si>
     <t>所有参数为空</t>
   </si>
   <si>
-    <t>case2</t>
+    <t>case3</t>
   </si>
   <si>
     <t>{"code":51,"message":"内容不能为空","data":{}}</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>只有标题</t>
   </si>
   <si>
-    <t>case3</t>
+    <t>case4</t>
   </si>
   <si>
     <t>{"code":0,"message":"success","data":{}}</t>
@@ -85,28 +106,58 @@
     <t>正常</t>
   </si>
   <si>
+    <t>case5</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>case6</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>case7</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
+    <t>test11</t>
+  </si>
+  <si>
     <t>{"code":51,"message":"ID不能为空","data":{}}</t>
   </si>
   <si>
-    <t>test1</t>
+    <t>{"code":300,"message":"只能编辑自己的博客","data":{}}</t>
+  </si>
+  <si>
+    <t>test22</t>
+  </si>
+  <si>
+    <t>编辑他人的博客</t>
   </si>
   <si>
     <t>{"code":51,"message":"博客ID不能为空","data":{}}</t>
   </si>
   <si>
-    <t>{"code":0,"message":"success","data":{"id":1,"title":"test","content":"test1","nickname":"test1"}}</t>
-  </si>
-  <si>
     <t>{"code":300,"message":"博客不存在","data":{}}</t>
   </si>
   <si>
     <t>不存在id</t>
   </si>
   <si>
-    <t>{"code":0,"message":"success","data":{"list":[{"id":4,"title":"test","content":"test","nickname":"test1"}]}}</t>
+    <t>{"code":0,"message":"success","data":{"id":2,"title":"test2","content":"test2","nickname":"test1"}}</t>
+  </si>
+  <si>
+    <t>cnt</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>不存在的ID</t>
@@ -115,22 +166,31 @@
     <t>ids</t>
   </si>
   <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>{"code":300,"message":"博客不存在:100","data":{"batNo":""}}</t>
+  </si>
+  <si>
+    <t>100,101</t>
+  </si>
+  <si>
+    <t>{"code":300,"message":"只能删除自己的博客:3","data":{"batNo":""}}</t>
+  </si>
+  <si>
+    <t>删除不是自己的博客</t>
+  </si>
+  <si>
     <t>{"code":0,"message":"success","data":{"batNo":"bat1"}}</t>
   </si>
   <si>
-    <t>2,3</t>
-  </si>
-  <si>
-    <t>100,101</t>
-  </si>
-  <si>
     <t>batNo</t>
   </si>
   <si>
+    <t>bat1</t>
+  </si>
+  <si>
     <t>{"code":0,"message":"success","data":{"status":"success"}}</t>
-  </si>
-  <si>
-    <t>bat1</t>
   </si>
   <si>
     <t>成功的</t>
@@ -778,6 +838,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
@@ -1316,22 +1379,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
     <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
     <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
     <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
-    <col min="8" max="8" width="56.3846153846154" customWidth="1"/>
+    <col min="8" max="8" width="6.15384615384615" customWidth="1"/>
+    <col min="9" max="9" width="10.1538461538462" customWidth="1"/>
+    <col min="10" max="10" width="9.84615384615385" customWidth="1"/>
+    <col min="11" max="11" width="56.3846153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1356,74 +1422,246 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:8">
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:11">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1435,9 +1673,535 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
+    <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
+    <col min="6" max="6" width="3.38461538461538" customWidth="1"/>
+    <col min="9" max="9" width="6.15384615384615" customWidth="1"/>
+    <col min="11" max="11" width="9.84615384615385" customWidth="1"/>
+    <col min="12" max="12" width="56.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:12">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <cols>
+    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
+    <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
+    <col min="7" max="7" width="6.15384615384615" customWidth="1"/>
+    <col min="9" max="9" width="9.84615384615385" customWidth="1"/>
+    <col min="10" max="10" width="56.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:10">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2"/>
+  <cols>
+    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
+    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
+    <col min="5" max="5" width="44.2307692307692" customWidth="1"/>
+    <col min="6" max="6" width="6.15384615384615" customWidth="1"/>
+    <col min="8" max="8" width="9.84615384615385" customWidth="1"/>
+    <col min="9" max="9" width="56.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1447,11 +2211,13 @@
     <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
     <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
     <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
-    <col min="6" max="6" width="3.38461538461538" customWidth="1"/>
-    <col min="9" max="9" width="56.3846153846154" customWidth="1"/>
+    <col min="6" max="6" width="4.69230769230769" customWidth="1"/>
+    <col min="7" max="7" width="6.15384615384615" customWidth="1"/>
+    <col min="9" max="9" width="9.84615384615385" customWidth="1"/>
+    <col min="10" max="10" width="56.3846153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1468,362 +2234,105 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B4"/>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:9">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
-    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
-    <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
-    <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
-    <col min="7" max="7" width="56.3846153846154" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:7">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
-    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
-    <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
-    <col min="5" max="5" width="96.1538461538462" customWidth="1"/>
-    <col min="6" max="6" width="56.3846153846154" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
-  <cols>
-    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
-    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
-    <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
-    <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
-    <col min="6" max="6" width="4.69230769230769" customWidth="1"/>
-    <col min="7" max="7" width="56.3846153846154" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1835,23 +2344,25 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
     <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
     <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
     <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
     <col min="6" max="6" width="8.15384615384615" customWidth="1"/>
-    <col min="7" max="7" width="56.3846153846154" customWidth="1"/>
+    <col min="7" max="7" width="6.15384615384615" customWidth="1"/>
+    <col min="9" max="9" width="9.84615384615385" customWidth="1"/>
+    <col min="10" max="10" width="56.3846153846154" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1868,56 +2379,143 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1929,13 +2527,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10.8461538461538" customWidth="1"/>
     <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
@@ -1943,10 +2541,13 @@
     <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
     <col min="5" max="5" width="57.2307692307692" customWidth="1"/>
     <col min="6" max="6" width="9.61538461538461" customWidth="1"/>
-    <col min="7" max="7" width="16.3365384615385" customWidth="1"/>
+    <col min="7" max="7" width="6.15384615384615" customWidth="1"/>
+    <col min="8" max="8" width="10.3846153846154"/>
+    <col min="9" max="9" width="9.84615384615385" customWidth="1"/>
+    <col min="10" max="10" width="16.3365384615385" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1963,79 +2564,143 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
